--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\UiPath\Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D12A76-588F-4DFA-834B-3A81B46D981D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6F7D4B-2BDC-4D0F-B293-9C0A7A6ED9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1320" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="1665" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\UiPath\Hash\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\UiPath\Security_Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6F7D4B-2BDC-4D0F-B293-9C0A7A6ED9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F55896-E7A4-48F4-AAE3-3D94D911FAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1665" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="1680" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
